--- a/downlink/config/TPS_UAS_IADS_Telem.xlsx
+++ b/downlink/config/TPS_UAS_IADS_Telem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/mammf_umsystem_edu/Documents/Documents/Projects/TPS_UAS/IADS/Telemetry_Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taranto/UMKC_AFRL_TPS/downlink/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB9A444-0DA6-4B64-98E4-24D6FE338165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E296354-4DC8-534A-B147-4C5F6B7D5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="420" windowWidth="11952" windowHeight="11610" activeTab="1" xr2:uid="{AC3C3CCC-A7E6-4B87-AA10-8AAF5E0D9455}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{AC3C3CCC-A7E6-4B87-AA10-8AAF5E0D9455}"/>
   </bookViews>
   <sheets>
     <sheet name="TPS_UAS_IADS_Telemetry" sheetId="1" r:id="rId1"/>
@@ -292,12 +292,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -312,8 +318,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,15 +641,15 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -688,7 +695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -711,7 +718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -734,7 +741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -757,7 +764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -780,7 +787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -803,7 +810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -826,7 +833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -849,7 +856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -872,7 +879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -895,7 +902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -918,7 +925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -941,7 +948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -964,7 +971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -987,7 +994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1148,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1286,7 +1293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1355,7 +1362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1378,7 +1385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1434,16 +1441,16 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <f>TPS_UAS_IADS_Telemetry!A2</f>
         <v>1</v>
@@ -1461,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>TPS_UAS_IADS_Telemetry!A3</f>
         <v>2</v>
@@ -1479,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>TPS_UAS_IADS_Telemetry!A4</f>
         <v>3</v>
@@ -1497,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>TPS_UAS_IADS_Telemetry!A5</f>
         <v>4</v>
@@ -1515,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>TPS_UAS_IADS_Telemetry!A6</f>
         <v>5</v>
@@ -1533,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>TPS_UAS_IADS_Telemetry!A7</f>
         <v>6</v>
@@ -1551,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>TPS_UAS_IADS_Telemetry!A8</f>
         <v>7</v>
@@ -1569,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>TPS_UAS_IADS_Telemetry!A9</f>
         <v>8</v>
@@ -1587,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>TPS_UAS_IADS_Telemetry!A10</f>
         <v>9</v>
@@ -1605,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>TPS_UAS_IADS_Telemetry!A11</f>
         <v>10</v>
@@ -1623,7 +1630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>TPS_UAS_IADS_Telemetry!A12</f>
         <v>11</v>
@@ -1641,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>TPS_UAS_IADS_Telemetry!A13</f>
         <v>12</v>
@@ -1659,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>TPS_UAS_IADS_Telemetry!A14</f>
         <v>13</v>
@@ -1677,12 +1684,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>TPS_UAS_IADS_Telemetry!A15</f>
         <v>14</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B15</f>
         <v>AILERON</v>
       </c>
@@ -1695,12 +1702,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>TPS_UAS_IADS_Telemetry!A16</f>
         <v>15</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B16</f>
         <v>ELEVATOR</v>
       </c>
@@ -1713,12 +1720,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>TPS_UAS_IADS_Telemetry!A17</f>
         <v>16</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B17</f>
         <v>RUDDER</v>
       </c>
@@ -1731,12 +1738,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>TPS_UAS_IADS_Telemetry!A18</f>
         <v>17</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B18</f>
         <v>THROTTLE</v>
       </c>
@@ -1749,12 +1756,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>TPS_UAS_IADS_Telemetry!A19</f>
         <v>18</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B19</f>
         <v>FLAPS</v>
       </c>
@@ -1767,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>TPS_UAS_IADS_Telemetry!A20</f>
         <v>19</v>
@@ -1785,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>TPS_UAS_IADS_Telemetry!A21</f>
         <v>20</v>
@@ -1803,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>TPS_UAS_IADS_Telemetry!A22</f>
         <v>21</v>
@@ -1821,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>TPS_UAS_IADS_Telemetry!A23</f>
         <v>22</v>
@@ -1839,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>TPS_UAS_IADS_Telemetry!A24</f>
         <v>23</v>
@@ -1857,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>TPS_UAS_IADS_Telemetry!A25</f>
         <v>24</v>
@@ -1875,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>TPS_UAS_IADS_Telemetry!A26</f>
         <v>25</v>
@@ -1893,12 +1900,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>TPS_UAS_IADS_Telemetry!A27</f>
         <v>26</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B27</f>
         <v>CLIMB_RATE</v>
       </c>
@@ -1911,12 +1918,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>TPS_UAS_IADS_Telemetry!A28</f>
         <v>27</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B28</f>
         <v>ATTITUDE_CMD_Q1</v>
       </c>
@@ -1929,12 +1936,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>TPS_UAS_IADS_Telemetry!A29</f>
         <v>28</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B29</f>
         <v>ATTITUDE_CMD_Q2</v>
       </c>
@@ -1947,12 +1954,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>TPS_UAS_IADS_Telemetry!A30</f>
         <v>29</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B30</f>
         <v>ATTITUDE_CMD_Q3</v>
       </c>
@@ -1965,12 +1972,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>TPS_UAS_IADS_Telemetry!A31</f>
         <v>30</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B31</f>
         <v>ATTITUDE_CMD_Q4</v>
       </c>
@@ -1983,12 +1990,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>TPS_UAS_IADS_Telemetry!A32</f>
         <v>31</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B32</f>
         <v>ROLL_RATE_CMD</v>
       </c>
@@ -2001,12 +2008,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>TPS_UAS_IADS_Telemetry!A33</f>
         <v>32</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B33</f>
         <v>PITCH_RATE_CMD</v>
       </c>
@@ -2019,12 +2026,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>TPS_UAS_IADS_Telemetry!A34</f>
         <v>33</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1" t="str">
         <f>TPS_UAS_IADS_Telemetry!B34</f>
         <v>YAW_RATE_CMD</v>
       </c>
